--- a/static/dados_quiz.xlsx
+++ b/static/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,10 +556,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="A2" t="n">
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -573,12 +571,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -598,7 +596,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -618,7 +616,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -628,7 +626,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -636,46 +634,810 @@
           <t>sim</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
+      <c r="X9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/dados_quiz.xlsx
+++ b/static/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,10 +666,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
+      <c r="A3" t="n">
+        <v>71</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -746,44 +744,698 @@
           <t>nao</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prefiro não dizer</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>ruim</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>aprovado</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>aprovado</t>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>reprovado</t>
         </is>
       </c>
     </row>

--- a/static/dados_quiz.xlsx
+++ b/static/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1318,10 +1318,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="A9" t="n">
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1398,42 +1396,154 @@
           <t>sim</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>reprovado</t>
         </is>

--- a/static/dados_quiz.xlsx
+++ b/static/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,50 +506,40 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Identificacao-4</t>
+          <t>Fator-Tratamento-1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Identificacao-5</t>
+          <t>Fator-Tratamento-2</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Tratamento-1</t>
+          <t>Fator-Tratamento-3</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Tratamento-2</t>
+          <t>Fator-Tratamento-4</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Tratamento-3</t>
+          <t>Fator-Tratamento-5</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Tratamento-4</t>
+          <t>Resultado-Fator-Risco</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Fator-Tratamento-5</t>
+          <t>Resultado-Identificacao</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado-Fator-Risco</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Resultado-Identificacao</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Resultado-Tratamento</t>
         </is>
@@ -557,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -566,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -591,7 +581,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -601,22 +591,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -624,18 +614,14 @@
           <t>sim</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>3</v>
@@ -643,31 +629,25 @@
       <c r="S2" t="n">
         <v>1</v>
       </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>aprovado</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>aprovado</t>
+          <t>reprovado</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -686,7 +666,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -696,17 +676,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -721,7 +701,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -734,42 +714,32 @@
           <t>sim</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>2</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>aprovado</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
@@ -777,21 +747,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -801,7 +771,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -811,7 +781,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -844,50 +814,44 @@
           <t>nao</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
         <v>2</v>
       </c>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
       <c r="S4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
+          <t>aprovado</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -897,7 +861,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -907,7 +871,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -917,7 +881,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -927,7 +891,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -937,63 +901,57 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
       </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
+          <t>aprovado</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Outro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1023,87 +981,79 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>sim</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>sim</t>
+          <t>nao</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
-      <c r="T6" t="n">
-        <v>3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
         <is>
           <t>reprovado</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>33</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Prefiro não dizer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1168,382 +1118,40 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>nao</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>3</v>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>33</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Feminino</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>35</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Prefiro não dizer</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>ruim</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>reprovado</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Masculino</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>nao</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>sim</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>bom</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>aprovado</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
         <is>
           <t>reprovado</t>
         </is>

--- a/static/dados_quiz.xlsx
+++ b/static/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,11 @@
           <t>Resultado-Tratamento</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -644,6 +649,7 @@
           <t>reprovado</t>
         </is>
       </c>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -744,6 +750,7 @@
           <t>aprovado</t>
         </is>
       </c>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -844,6 +851,7 @@
           <t>aprovado</t>
         </is>
       </c>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -944,6 +952,7 @@
           <t>aprovado</t>
         </is>
       </c>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1044,12 +1053,11 @@
           <t>reprovado</t>
         </is>
       </c>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="A7" t="n">
+        <v>36</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1116,44 +1124,665 @@
           <t>sim</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>nandavale13@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prefiro não dizer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>lucasmmatos05@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prefiro não dizer</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>lucasmmatos05@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>28</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>bom</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>lucasmmatos05@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>bom</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>reprovado</t>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>lucasmmatos05@gmail.com</t>
         </is>
       </c>
     </row>

--- a/static/dados_quiz.xlsx
+++ b/static/dados_quiz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,10 +677,8 @@
           <t>lucasmmatos05@gmail.com</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="B3" t="n">
+        <v>35</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -750,30 +748,20 @@
       <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -789,6 +777,129 @@
         </is>
       </c>
       <c r="Y3" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>lucasmmatos05@gmail.com</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>nao</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>ruim</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>aprovado</t>
         </is>
